--- a/medicine/Sexualité et sexologie/La_Grange_(chanson)/La_Grange_(chanson).xlsx
+++ b/medicine/Sexualité et sexologie/La_Grange_(chanson)/La_Grange_(chanson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Grange est une chanson  de blues rock-rhythm and blues, du groupe texan ZZ Top, écrite et composée par ses trois membres Billy Gibbons, Dusty Hill, et Frank Beard, single extrait de leur 3e album studio Tres Hombres (Trois Hommes, en espagnol) de 1973. Adaptée de la série de succès emblématiques de blues rock américain Boogie Chillen' (1948) et Boom Boom (1962) de John Lee Hooker, et Green Onions (1962), cette chanson est un des plus importants succès internationaux du groupe[3],[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grange est une chanson  de blues rock-rhythm and blues, du groupe texan ZZ Top, écrite et composée par ses trois membres Billy Gibbons, Dusty Hill, et Frank Beard, single extrait de leur 3e album studio Tres Hombres (Trois Hommes, en espagnol) de 1973. Adaptée de la série de succès emblématiques de blues rock américain Boogie Chillen' (1948) et Boom Boom (1962) de John Lee Hooker, et Green Onions (1962), cette chanson est un des plus importants succès internationaux du groupe,. 
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette chanson (n°41 des ventes du Billboard Hot 100 américain 1973 à sa sortie aux États-Unis) est inspirée et adaptée du groove musical des succès mythiques de blues rock américain :
 1948 : Boogie Chillen', premier enregistrement blues de John Lee Hooker  (sur youtube)
 1962 : Boom Boom, reprise et adaptée de la précédente par le précédent (sur youtube)
 1962 : Green Onions (Les Oignons Verts) de Booker T. Jones, Steve Cropper, Lewie Steinberg, et Al Jackson, Jr. (sur youtube).
-Les paroles de cette chanson (sur le thème de la prostitution et des maisons closes[5]) font références à une grange près de La Grange, le « Ranch du Poulet » (Chicken Ranch) célèbre bordel historique institutionnel de la municipalité de La Grange, entre Austin et Houston, au Texas (également thème du film La Cage aux poules, de Colin Higgins en 1978, avec Burt Reynolds).
+Les paroles de cette chanson (sur le thème de la prostitution et des maisons closes) font références à une grange près de La Grange, le « Ranch du Poulet » (Chicken Ranch) célèbre bordel historique institutionnel de la municipalité de La Grange, entre Austin et Houston, au Texas (également thème du film La Cage aux poules, de Colin Higgins en 1978, avec Burt Reynolds).
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>ZZ Top</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Billy Gibbons : chant &amp; guitare électrique (Fender Stratocaster[6])
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Billy Gibbons : chant &amp; guitare électrique (Fender Stratocaster)
 Dusty Hill : guitare basse
 Frank Beard : batterie</t>
         </is>
@@ -578,10 +594,12 @@
           <t>Single et albums ZZ Top</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1973 : Tres Hombres
-1973 : Single (avec Just Got Paid en face B[7])
+1973 : Single (avec Just Got Paid en face B)
 1992 : Greatest Hits</t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Clip</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux enregistrements de « La Grange » (sur youtube) et de Green Onions (sur youtube) sont réalisés dans la grange-studio de la maison personnelle du chanteur-guitariste-présentateur Daryl Hall, près de New York, pour son émission télévisée de variété américaine Live from Daryl's House (en). 
 </t>
@@ -641,7 +661,9 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1996 : Striptease, d'Andrew Bergman, avec Demi Moore
 1998 : Armageddon, de Michael Bay, avec Bruce Willis et Ben Affleck
@@ -680,7 +702,9 @@
           <t>Autres usages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La chanson est reprise pour de multiples usages, dont :
 1992 : jeu de flipper The Getaway: High Speed II, chanson-titre
@@ -720,7 +744,9 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
